--- a/static/tables/table-FPFN-result.xlsx
+++ b/static/tables/table-FPFN-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BLEGuard\supplement\static\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FDAB8B-A28D-47F2-AF83-9AAB5711AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B593B4FA-8941-48D9-BB3B-0F068ACBB8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Device ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,26 @@
   </si>
   <si>
     <t>TN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP+TN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN+TP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +200,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,23 +231,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -225,16 +255,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{27EC902E-0F31-4924-8A30-3A0D07EF1679}"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,55 +290,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>196887</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>503905</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>18476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACE29F6-7573-975F-A7E5-AD286F0572AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8274087" y="914400"/>
-          <a:ext cx="3964618" cy="2472116"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,41 +555,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="22.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
@@ -614,475 +611,804 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C5" si="0">SUM(F3:G3)/SUM(F3:I3)*100</f>
-        <v>98.690325306294895</v>
-      </c>
-      <c r="D3" s="9">
-        <f>H3/SUM(G3:H3)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.97</v>
+      <c r="C3" s="6">
+        <v>97.4</v>
+      </c>
+      <c r="D3" s="6">
+        <f>(H3/L3)*100</f>
+        <v>9.2165898617511524E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <f>(I3/M3)*100</f>
+        <v>0.84916201117318446</v>
       </c>
       <c r="F3" s="2">
-        <v>4637</v>
-      </c>
-      <c r="G3" s="2">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2">
-        <v>7</v>
+        <v>4437</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2168</v>
+      </c>
+      <c r="H3" s="10">
+        <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J5" si="1">SUM(F3:I3)</f>
-        <v>4734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2">
+        <f>SUM(F3:G3)</f>
+        <v>6605</v>
+      </c>
+      <c r="L3" s="2">
+        <f>SUM(G3:H3)</f>
+        <v>2170</v>
+      </c>
+      <c r="M3" s="2">
+        <f>SUM(I3+F3)</f>
+        <v>4475</v>
+      </c>
+      <c r="N3" s="2">
+        <f>SUM(F3:I3)</f>
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>98.472310630171862</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D12" si="2">H4/SUM(G4:H4)</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.96</v>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C18" si="0">K4/N4*100</f>
+        <v>99.199199199199199</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D18" si="1">(H4/L4)*100</f>
+        <v>6.858710562414265E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E18" si="2">(I4/M4)*100</f>
+        <v>1.4944769330734242</v>
       </c>
       <c r="F4" s="2">
         <v>1516</v>
       </c>
-      <c r="G4" s="2">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="10">
+        <v>1457</v>
+      </c>
+      <c r="H4" s="10">
         <v>1</v>
       </c>
       <c r="I4" s="2">
         <v>23</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="2">
+        <f>SUM(F4:G4)</f>
+        <v>2973</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L18" si="3">SUM(G4:H4)</f>
+        <v>1458</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M18" si="4">SUM(I4+F4)</f>
+        <v>1539</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N18" si="5">SUM(F4:I4)</f>
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>99.338499338499346</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="6">
+        <v>97.86</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="1"/>
+        <v>7.4738415545590436E-2</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1.65</v>
+        <v>1.9581749049429658</v>
       </c>
       <c r="F5" s="2">
         <v>5157</v>
       </c>
-      <c r="G5" s="2">
-        <v>99</v>
-      </c>
-      <c r="H5" s="2">
-        <v>9</v>
+      <c r="G5" s="10">
+        <v>4011</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3</v>
       </c>
       <c r="I5" s="2">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="1"/>
-        <v>5291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>103</v>
+      </c>
+      <c r="K5" s="2">
+        <f>SUM(F5:G5)</f>
+        <v>9168</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="3"/>
+        <v>4014</v>
+      </c>
+      <c r="M5" s="2">
+        <f>SUM(I5+F5)</f>
+        <v>5260</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="5"/>
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9">
-        <f>SUM(F6:G6)/SUM(F6:I6)*100</f>
-        <v>99.078993978037545</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="6">
+        <v>97.58</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>9.1975166704989661E-2</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="2"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1.07</v>
+        <v>0.93189964157706107</v>
       </c>
       <c r="F6" s="2">
         <v>2764</v>
       </c>
-      <c r="G6" s="2">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2">
-        <v>9</v>
+      <c r="G6" s="10">
+        <v>4345</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2">
-        <f>SUM(F6:I6)</f>
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <f>SUM(F6:G6)</f>
+        <v>7109</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="3"/>
+        <v>4349</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="4"/>
+        <v>2790</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="5"/>
+        <v>7139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
-        <f t="shared" ref="C7:C12" si="3">SUM(F7:G7)/SUM(F7:I7)*100</f>
-        <v>99.529582051745976</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="6">
+        <v>97.26</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="1"/>
+        <v>7.4156470152020759E-2</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="2"/>
-        <v>0.19565217391304349</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.1299999999999999</v>
+        <v>1.0682600036212204</v>
       </c>
       <c r="F7" s="2">
         <v>5464</v>
       </c>
-      <c r="G7" s="2">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9</v>
+      <c r="G7" s="10">
+        <v>2695</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2</v>
       </c>
       <c r="I7" s="2">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J12" si="4">SUM(F7:I7)</f>
-        <v>5527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>59</v>
+      </c>
+      <c r="K7" s="2">
+        <f>SUM(F7:G7)</f>
+        <v>8159</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>2697</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="4"/>
+        <v>5523</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="5"/>
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
+        <v>98.07</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14492753623188406</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2582384661473938</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1648</v>
+      </c>
+      <c r="G8" s="10">
+        <v>689</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <f>SUM(F8:G8)</f>
+        <v>2337</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="3"/>
-        <v>98.15533980582525</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="F8" s="2">
-        <v>983</v>
-      </c>
-      <c r="G8" s="2">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2">
+        <v>690</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="4"/>
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1669</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="5"/>
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
+        <v>97.49</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10845986984815618</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.95808383233532934</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2481</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2763</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2">
+        <f>SUM(F9:G9)</f>
+        <v>5244</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
-        <v>98.043052837573384</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="2"/>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.96</v>
-      </c>
-      <c r="F9" s="2">
-        <v>983</v>
-      </c>
-      <c r="G9" s="2">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2">
+        <v>2766</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="4"/>
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>2505</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="5"/>
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9">
-        <f t="shared" si="3"/>
-        <v>99.444681759931655</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="6">
+        <v>98.19</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4884742041712405E-2</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.43</v>
+        <v>1.390076988879384</v>
       </c>
       <c r="F10" s="2">
         <v>4611</v>
       </c>
-      <c r="G10" s="2">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9</v>
+      <c r="G10" s="10">
+        <v>3642</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2</v>
       </c>
       <c r="I10" s="2">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2">
+        <v>65</v>
+      </c>
+      <c r="K10" s="2">
+        <f>SUM(F10:G10)</f>
+        <v>8253</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>3644</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
-        <v>4682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>4676</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="5"/>
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
+        <v>97.61</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>7.8145350351654069E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.74096028452874918</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3349</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3836</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <f>SUM(F11:G11)</f>
+        <v>7185</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="3"/>
-        <v>97.565543071161059</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="2"/>
-        <v>0.13235294117647059</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.72</v>
-      </c>
-      <c r="F11" s="2">
-        <v>983</v>
-      </c>
-      <c r="G11" s="2">
-        <v>59</v>
-      </c>
-      <c r="H11" s="2">
-        <v>9</v>
-      </c>
-      <c r="I11" s="2">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2">
+        <v>3839</v>
+      </c>
+      <c r="M11" s="2">
         <f t="shared" si="4"/>
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.4">
+        <v>3374</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="5"/>
+        <v>7213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
+        <v>98.15</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11645962732919254</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9351166761525329</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1723</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2573</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2">
+        <f>SUM(F12:G12)</f>
+        <v>4296</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="3"/>
-        <v>97.542533081285441</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="2"/>
-        <v>0.15517241379310345</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F12" s="2">
-        <v>983</v>
-      </c>
-      <c r="G12" s="2">
-        <v>49</v>
-      </c>
-      <c r="H12" s="2">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2">
+        <v>2576</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="4"/>
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.4">
+        <v>1757</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="5"/>
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1">
-        <v>98.24</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="C13" s="6">
+        <v>96.96</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4944769330734242</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1516</v>
+      </c>
+      <c r="G13" s="10">
+        <v>774</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2">
+        <f>SUM(F13:G13)</f>
+        <v>2290</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>775</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="4"/>
+        <v>1539</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="5"/>
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1">
-        <v>98.89</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>98.616448885472721</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>7.9428117553613981E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6965306900495616</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5157</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1258</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>89</v>
+      </c>
+      <c r="K14" s="2">
+        <f>SUM(F14:G14)</f>
+        <v>6415</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="3"/>
+        <v>1259</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="4"/>
+        <v>5246</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="5"/>
+        <v>6505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
-        <v>99.03</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.4">
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>99.440586419753089</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>8.3577099874634353E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.96739519885345759</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2764</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2391</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>27</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(F15:G15)</f>
+        <v>5155</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="3"/>
+        <v>2393</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="4"/>
+        <v>2791</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="5"/>
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1">
-        <v>98.17</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4">
+      <c r="C16" s="6">
+        <v>97.05</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4785430941218896</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5464</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3397</v>
+      </c>
+      <c r="H16" s="10">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>82</v>
+      </c>
+      <c r="K16" s="2">
+        <f>SUM(F16:G16)</f>
+        <v>8861</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="3"/>
+        <v>3400</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="4"/>
+        <v>5546</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="5"/>
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1">
-        <v>99.41</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4">
+      <c r="C17" s="6">
+        <v>98.54</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0783034257748776E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1470985155195683</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1465</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2451</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2">
+        <f>SUM(F17:G17)</f>
+        <v>3916</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="3"/>
+        <v>2452</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="4"/>
+        <v>1482</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="5"/>
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
+        <v>98.73</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11976047904191617</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1288180610889775</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2978</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1668</v>
+      </c>
+      <c r="H18" s="10">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2">
+        <f>SUM(F18:G18)</f>
+        <v>4646</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="3"/>
+        <v>1670</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="4"/>
+        <v>3012</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="5"/>
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
+        <f>AVERAGE(C3:C18)</f>
+        <v>98.009139656526557</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:E19" si="6">AVERAGE(D3:D18)</f>
+        <v>9.0332279084808176E-2</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="6"/>
+        <v>1.2810820146961328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
         <v>98.01</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D20" s="2">
         <v>0.09</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E20" s="2">
         <v>1.28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="9">
-        <f>AVERAGE(C3:C18)</f>
-        <v>98.600678866282919</v>
-      </c>
-      <c r="D19" s="9">
-        <f t="shared" ref="D19:E19" si="5">AVERAGE(D3:D18)</f>
-        <v>0.10052563830408136</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="5"/>
-        <v>0.828125</v>
       </c>
     </row>
   </sheetData>
@@ -1095,6 +1421,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>